--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E50736-D61D-41A2-8FEC-81BE2A34270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B060E9-B478-4F43-AE34-0B094042A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>備註說明</t>
   </si>
@@ -494,6 +494,30 @@
   <si>
     <t xml:space="preserve">業務自行編制   例：L2-業務作業    </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:日編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>618D</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次寫入交易暫存檔</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gSeqCom.getSeqNo(this.getTxBuffer().getMgBizDate().getTbsDy(), 3, "L6", "618D", 999999, titaVo),</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1174,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1559,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2228,6 +2252,30 @@
       <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
+        <v>30</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="36">
+        <v>999999</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="M29" s="33" t="s">
         <v>119</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B060E9-B478-4F43-AE34-0B094042A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF2801-8DA8-47EC-BD62-7103633AD623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="使用案例" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>備註說明</t>
   </si>
@@ -126,14 +117,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CdGseq</t>
@@ -518,6 +501,9 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -715,11 +701,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -728,9 +714,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,86 +741,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -916,9 +887,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,26 +922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,26 +957,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1198,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1207,326 +1144,326 @@
     <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="23">
         <v>8</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="26" t="s">
-        <v>106</v>
+      <c r="F9" s="19"/>
+      <c r="G9" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="B10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="28" t="s">
-        <v>125</v>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="26" t="s">
-        <v>128</v>
+      <c r="F11" s="19"/>
+      <c r="G11" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="25">
         <v>4</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="28" t="s">
-        <v>126</v>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="B13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="26" t="s">
-        <v>127</v>
+      <c r="F13" s="19"/>
+      <c r="G13" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="B14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="25">
         <v>8</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="29"/>
+      <c r="D15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>6</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>6</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1562,13 +1499,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1583,701 +1520,700 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="94.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="4.88671875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
+        <v>3</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="33">
+        <v>99999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="D4" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>6</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>7</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>8</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>9</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>10</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>12</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>13</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>14</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>15</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>16</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>17</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
+        <v>18</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>19</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>20</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>21</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
+        <v>22</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
+        <v>23</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
+        <v>24</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="33">
+        <v>9999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
+        <v>25</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="33">
+        <v>999999</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
-        <v>2</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="36">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>26</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="33">
+        <v>999999</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>27</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="33">
         <v>9999999</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>28</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
-        <v>3</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="E27" s="33">
+        <v>999999</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
+        <v>29</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="36">
-        <v>99999</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
-        <v>6</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
-        <v>7</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
-        <v>8</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
-        <v>9</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
-        <v>10</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
-        <v>11</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
-        <v>12</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
-        <v>13</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
-        <v>14</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
-        <v>15</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
-        <v>16</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
-        <v>17</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
-        <v>18</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
-        <v>19</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
-        <v>20</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
-        <v>21</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
-        <v>22</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
-        <v>23</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
-        <v>24</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
-        <v>25</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="D28" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="33">
+        <v>999999</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="36">
+      <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
+        <v>30</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="33">
         <v>999999</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
-        <v>26</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="36">
-        <v>999999</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="32">
-        <v>27</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="36">
-        <v>9999999</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
-        <v>28</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="36">
-        <v>999999</v>
-      </c>
-      <c r="F27" s="37" t="s">
+      <c r="F29" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" t="s">
         <v>117</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
-        <v>29</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="36">
-        <v>999999</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="32">
-        <v>30</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="36">
-        <v>999999</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="33" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
